--- a/REGULAR/RE-ENCODE/DIMAPILIS ELVIRA.xlsx
+++ b/REGULAR/RE-ENCODE/DIMAPILIS ELVIRA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C87CAD7-5065-4537-8FF8-21F8C5007C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C9F037-F932-4916-BEC3-B0C3932D9B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
   <si>
     <t>PERIOD</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>CTO</t>
+  </si>
+  <si>
+    <t>4/26,27,28/2023</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1375,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A103" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="B108" sqref="B108"/>
+      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1535,7 +1538,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>94.28</v>
+        <v>91.28</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3696,9 +3699,13 @@
       <c r="A108" s="40">
         <v>45017</v>
       </c>
-      <c r="B108" s="20"/>
+      <c r="B108" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C108" s="13"/>
-      <c r="D108" s="39"/>
+      <c r="D108" s="39">
+        <v>3</v>
+      </c>
       <c r="E108" s="9"/>
       <c r="F108" s="20"/>
       <c r="G108" s="13" t="str">
@@ -3708,7 +3715,9 @@
       <c r="H108" s="39"/>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="20"/>
+      <c r="K108" s="20" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
